--- a/merlin-core/examples/tests/Serial-template-data.xlsx
+++ b/merlin-core/examples/tests/Serial-template-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-core/examples/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BE9445-183D-A646-A173-4D1935B36589}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73D196D-1CAF-C542-9DAE-21A6D9E86B46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" activeTab="1" xr2:uid="{B54CD9CA-9C0E-2542-8726-037B9D13EF85}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/merlin-core/examples/tests/Serial-template-data.xlsx
+++ b/merlin-core/examples/tests/Serial-template-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-core/examples/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73D196D-1CAF-C542-9DAE-21A6D9E86B46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6592370-7F85-114E-91C7-4CEF8F263754}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" activeTab="1" xr2:uid="{B54CD9CA-9C0E-2542-8726-037B9D13EF85}"/>
+    <workbookView xWindow="2680" yWindow="1500" windowWidth="30320" windowHeight="17560" xr2:uid="{B54CD9CA-9C0E-2542-8726-037B9D13EF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,41 +27,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Employee</t>
   </si>
   <si>
-    <t>Salutation</t>
-  </si>
-  <si>
     <t>WeeklyHours</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Kai Reinhard</t>
   </si>
   <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>full-time</t>
-  </si>
-  <si>
     <t>Fin Reinhard</t>
   </si>
   <si>
-    <t>part-time</t>
-  </si>
-  <si>
     <t>Sandy Smith</t>
   </si>
   <si>
-    <t>Mrs</t>
-  </si>
-  <si>
     <t>Filename</t>
   </si>
   <si>
@@ -71,9 +53,6 @@
     <t>If not given, the filename of the Word template is used and the number of document is part of the filename.</t>
   </si>
   <si>
-    <t>Column</t>
-  </si>
-  <si>
     <t>Values</t>
   </si>
   <si>
@@ -95,13 +74,73 @@
     <t>integer</t>
   </si>
   <si>
-    <t>"full-time", "part-time"</t>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>His_Her</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>"male", "female"</t>
+  </si>
+  <si>
+    <t>Mr_Mrs</t>
+  </si>
+  <si>
+    <t>"His", "Her"</t>
+  </si>
+  <si>
+    <t>his_her</t>
+  </si>
+  <si>
+    <t>He_She</t>
+  </si>
+  <si>
+    <t>he_she</t>
+  </si>
+  <si>
+    <t>BeginDate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>"his", "her"</t>
+  </si>
+  <si>
+    <t>"he", "she"</t>
+  </si>
+  <si>
+    <t>"He", "She"</t>
+  </si>
+  <si>
+    <t>MasterVariable</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="dd/mm/yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -139,9 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -458,11 +499,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275281D9-F08D-7840-864F-8191577CB4EC}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -470,55 +514,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="3">
+        <v>36251</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3" s="3">
+        <v>43374</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="D4" s="3">
+        <v>43466</v>
       </c>
     </row>
   </sheetData>
@@ -528,76 +572,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40791165-AFD5-2D4E-B23B-3F4D73A5B45A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -621,13 +742,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
